--- a/StructureDefinition-international-telephone.xlsx
+++ b/StructureDefinition-international-telephone.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T18:59:21-05:00</t>
+    <t>2021-12-01T10:26:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
